--- a/project video game.xlsx
+++ b/project video game.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT Polytechnic\Video game project\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1371FEFF-0CBE-4E90-BBA2-36DB6469A098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A77160-2D8E-4D17-A4F9-E263D999DC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1E821D56-99D0-41E6-91FE-3C9D88C6B452}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Thành viên</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Minh Vũ</t>
+  </si>
+  <si>
+    <t>Tạo database</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <dimension ref="F5:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,7 +505,9 @@
       <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="s">
